--- a/data/group_home/data.xlsx
+++ b/data/group_home/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,19 +451,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>34.33975139</v>
+        <v>34.3380529158747</v>
       </c>
       <c r="C2" t="str">
-        <v>134.04465472</v>
+        <v>134.05411351805583</v>
       </c>
       <c r="D2" t="str">
         <v>グループホームやすらぎ</v>
       </c>
       <c r="E2" t="str">
-        <v>高松市天神前5-22</v>
+        <v>高松市塩上町一丁目4-10</v>
       </c>
       <c r="F2" t="str">
-        <v>087-837-1515</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -475,7 +475,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J2" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K2" t="str">
         <v/>
@@ -484,15 +484,15 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
         <v>34.33364639</v>
@@ -507,10 +507,10 @@
         <v>高松市藤塚町一丁目11-5</v>
       </c>
       <c r="F3" t="str">
-        <v>087-831-9667</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>http://nursing-home.dr-navip.jp/kagawa/facility/1111/</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v/>
@@ -519,7 +519,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J3" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K3" t="str">
         <v/>
@@ -528,15 +528,15 @@
         <v/>
       </c>
       <c r="M3" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N3" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
         <v>34.330325</v>
@@ -551,10 +551,10 @@
         <v>高松市上福岡町2005-11</v>
       </c>
       <c r="F4" t="str">
-        <v>087-837-2188</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>http://www.home-ainosato.com/</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -563,7 +563,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J4" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K4" t="str">
         <v/>
@@ -572,15 +572,15 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N4" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
         <v>34.30722639</v>
@@ -595,10 +595,10 @@
         <v>高松市檀紙町1452-1</v>
       </c>
       <c r="F5" t="str">
-        <v>087-815-6511</v>
+        <v/>
       </c>
       <c r="G5" t="str">
-        <v>http://oasis-kozai.com/</v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <v/>
@@ -607,7 +607,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J5" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K5" t="str">
         <v/>
@@ -616,15 +616,15 @@
         <v/>
       </c>
       <c r="M5" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N5" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
         <v>34.28434611</v>
@@ -639,10 +639,10 @@
         <v>高松市円座町1300-2</v>
       </c>
       <c r="F6" t="str">
-        <v>087-815-7200</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>http://www.happylifeai.co.jp/</v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -651,7 +651,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J6" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -660,15 +660,15 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N6" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
         <v>34.26092639</v>
@@ -683,7 +683,7 @@
         <v>高松市川部町1300-1</v>
       </c>
       <c r="F7" t="str">
-        <v>087-886-5558</v>
+        <v/>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -695,7 +695,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J7" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K7" t="str">
         <v/>
@@ -704,15 +704,15 @@
         <v/>
       </c>
       <c r="M7" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N7" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
         <v>34.31523417</v>
@@ -727,7 +727,7 @@
         <v>高松市西春日町1511-1</v>
       </c>
       <c r="F8" t="str">
-        <v>087-869-1165</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -739,7 +739,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J8" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K8" t="str">
         <v/>
@@ -748,15 +748,15 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N8" t="str">
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
         <v>34.31362611</v>
@@ -771,7 +771,7 @@
         <v>高松市松並町649-1</v>
       </c>
       <c r="F9" t="str">
-        <v>087-815-3810</v>
+        <v/>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -783,7 +783,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J9" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K9" t="str">
         <v/>
@@ -792,15 +792,15 @@
         <v/>
       </c>
       <c r="M9" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N9" t="str">
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
         <v>34.322645</v>
@@ -815,7 +815,7 @@
         <v>高松市室新町1-8</v>
       </c>
       <c r="F10" t="str">
-        <v>087-815-1231</v>
+        <v/>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -827,7 +827,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J10" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K10" t="str">
         <v/>
@@ -836,15 +836,15 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N10" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="str">
         <v>34.32076472</v>
@@ -859,10 +859,10 @@
         <v>高松市伏石町2008-5</v>
       </c>
       <c r="F11" t="str">
-        <v>087-868-8828</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>http://maedaseikei.net/publics/index/235/</v>
+        <v/>
       </c>
       <c r="H11" t="str">
         <v/>
@@ -871,7 +871,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J11" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K11" t="str">
         <v/>
@@ -880,15 +880,15 @@
         <v/>
       </c>
       <c r="M11" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N11" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="str">
         <v>34.30706611</v>
@@ -903,7 +903,7 @@
         <v>高松市太田下町1868-2</v>
       </c>
       <c r="F12" t="str">
-        <v>087-864-5552</v>
+        <v/>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -915,7 +915,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J12" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K12" t="str">
         <v/>
@@ -924,15 +924,15 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N12" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="str">
         <v>34.30438028</v>
@@ -947,10 +947,10 @@
         <v>高松市太田下町2020-1</v>
       </c>
       <c r="F13" t="str">
-        <v>087-815-1800</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>http://www.sumire-fukushi.jp/</v>
+        <v/>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -959,7 +959,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J13" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K13" t="str">
         <v/>
@@ -968,15 +968,15 @@
         <v/>
       </c>
       <c r="M13" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N13" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="str">
         <v>34.30271583</v>
@@ -991,7 +991,7 @@
         <v>高松市成合町581</v>
       </c>
       <c r="F14" t="str">
-        <v>087-815-6580</v>
+        <v/>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -1003,7 +1003,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J14" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K14" t="str">
         <v/>
@@ -1012,15 +1012,15 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N14" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
         <v>34.29199222</v>
@@ -1035,10 +1035,10 @@
         <v>高松市一宮町1568-1</v>
       </c>
       <c r="F15" t="str">
-        <v>087-815-6001</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v>http://www.rakuraku-group.jp/</v>
+        <v/>
       </c>
       <c r="H15" t="str">
         <v/>
@@ -1047,7 +1047,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J15" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K15" t="str">
         <v/>
@@ -1056,15 +1056,15 @@
         <v/>
       </c>
       <c r="M15" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N15" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="str">
         <v>34.32359278</v>
@@ -1079,7 +1079,7 @@
         <v>高松市木太町3749-3</v>
       </c>
       <c r="F16" t="str">
-        <v>087-863-5112</v>
+        <v/>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -1091,7 +1091,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J16" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K16" t="str">
         <v/>
@@ -1100,15 +1100,15 @@
         <v/>
       </c>
       <c r="M16" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N16" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
         <v>34.33139778</v>
@@ -1117,16 +1117,16 @@
         <v>134.09350611</v>
       </c>
       <c r="D17" t="str">
-        <v>グループホームアダージォ泉</v>
+        <v>グループホーム吉祥</v>
       </c>
       <c r="E17" t="str">
         <v>高松市春日町1336-1</v>
       </c>
       <c r="F17" t="str">
-        <v>087-841-8828</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>http://www.izumi-clinic.or.jp/adagio/index.html</v>
+        <v/>
       </c>
       <c r="H17" t="str">
         <v/>
@@ -1135,7 +1135,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J17" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K17" t="str">
         <v/>
@@ -1144,15 +1144,15 @@
         <v/>
       </c>
       <c r="M17" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N17" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
         <v>34.32543444</v>
@@ -1167,7 +1167,7 @@
         <v>高松市春日町671-1</v>
       </c>
       <c r="F18" t="str">
-        <v>087-841-8825</v>
+        <v/>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -1179,7 +1179,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J18" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K18" t="str">
         <v/>
@@ -1188,15 +1188,15 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N18" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
         <v>34.32825389</v>
@@ -1211,7 +1211,7 @@
         <v>高松市新田町甲2712-1</v>
       </c>
       <c r="F19" t="str">
-        <v>087-818-1060</v>
+        <v/>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -1223,7 +1223,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J19" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K19" t="str">
         <v/>
@@ -1232,15 +1232,15 @@
         <v/>
       </c>
       <c r="M19" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N19" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
         <v>34.31631917</v>
@@ -1255,10 +1255,10 @@
         <v>高松市新田町甲2181-1</v>
       </c>
       <c r="F20" t="str">
-        <v>087-844-8775</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>http://careservice-hasegawa.jp/</v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1267,7 +1267,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J20" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K20" t="str">
         <v/>
@@ -1276,15 +1276,15 @@
         <v/>
       </c>
       <c r="M20" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N20" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="str">
         <v>34.34113889</v>
@@ -1299,7 +1299,7 @@
         <v>高松市高松町2160-1</v>
       </c>
       <c r="F21" t="str">
-        <v>087-841-2222</v>
+        <v/>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -1311,7 +1311,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J21" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K21" t="str">
         <v/>
@@ -1320,15 +1320,15 @@
         <v/>
       </c>
       <c r="M21" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N21" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="str">
         <v>34.33625889</v>
@@ -1343,7 +1343,7 @@
         <v>高松市高松町1718-2</v>
       </c>
       <c r="F22" t="str">
-        <v>087-844-8521</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -1355,7 +1355,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J22" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K22" t="str">
         <v/>
@@ -1364,15 +1364,15 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N22" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="str">
         <v>34.28601333</v>
@@ -1387,10 +1387,10 @@
         <v>高松市上林町822-1</v>
       </c>
       <c r="F23" t="str">
-        <v>087-815-5010</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>https://seimeikai.jp/wakaba/</v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1399,7 +1399,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J23" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K23" t="str">
         <v/>
@@ -1408,15 +1408,15 @@
         <v/>
       </c>
       <c r="M23" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N23" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="str">
         <v>34.2964575</v>
@@ -1431,10 +1431,10 @@
         <v>高松市前田西町1080-18</v>
       </c>
       <c r="F24" t="str">
-        <v>087-847-1150</v>
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>http://www.syurikai.com/</v>
+        <v/>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1443,7 +1443,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J24" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K24" t="str">
         <v/>
@@ -1452,15 +1452,15 @@
         <v/>
       </c>
       <c r="M24" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N24" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="str">
         <v>34.25982833</v>
@@ -1469,13 +1469,13 @@
         <v>134.10604083</v>
       </c>
       <c r="D25" t="str">
-        <v>グループホーム　実の里</v>
+        <v>グループホーム　らく楽十川</v>
       </c>
       <c r="E25" t="str">
         <v>高松市十川東町938-1</v>
       </c>
       <c r="F25" t="str">
-        <v>087-848-5155</v>
+        <v/>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -1487,7 +1487,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J25" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K25" t="str">
         <v/>
@@ -1496,15 +1496,15 @@
         <v/>
       </c>
       <c r="M25" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N25" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="str">
         <v>34.27957861</v>
@@ -1519,7 +1519,7 @@
         <v>高松市川島本町276-1</v>
       </c>
       <c r="F26" t="str">
-        <v>087-848-9273</v>
+        <v/>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -1531,7 +1531,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J26" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K26" t="str">
         <v/>
@@ -1540,15 +1540,15 @@
         <v/>
       </c>
       <c r="M26" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N26" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="str">
         <v>34.28301083</v>
@@ -1563,10 +1563,10 @@
         <v>高松市三谷町1643-1</v>
       </c>
       <c r="F27" t="str">
-        <v>087-888-0202</v>
+        <v/>
       </c>
       <c r="G27" t="str">
-        <v>https://seimeikai.jp/wakaba/</v>
+        <v/>
       </c>
       <c r="H27" t="str">
         <v/>
@@ -1575,7 +1575,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J27" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K27" t="str">
         <v/>
@@ -1584,15 +1584,15 @@
         <v/>
       </c>
       <c r="M27" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N27" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="str">
         <v>34.26881528</v>
@@ -1607,10 +1607,10 @@
         <v>高松市三谷町4551-6</v>
       </c>
       <c r="F28" t="str">
-        <v>087-840-1088</v>
+        <v/>
       </c>
       <c r="G28" t="str">
-        <v>https://seimeikai.jp/wakaba/</v>
+        <v/>
       </c>
       <c r="H28" t="str">
         <v/>
@@ -1619,7 +1619,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J28" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K28" t="str">
         <v/>
@@ -1628,15 +1628,15 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N28" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="str">
         <v>34.28093889</v>
@@ -1651,10 +1651,10 @@
         <v>高松市三谷町1654-5</v>
       </c>
       <c r="F29" t="str">
-        <v>087-888-7008</v>
+        <v/>
       </c>
       <c r="G29" t="str">
-        <v>https://seimeikai.jp/wakaba/</v>
+        <v/>
       </c>
       <c r="H29" t="str">
         <v/>
@@ -1663,7 +1663,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J29" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K29" t="str">
         <v/>
@@ -1672,15 +1672,15 @@
         <v/>
       </c>
       <c r="M29" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N29" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="str">
         <v>34.28840722</v>
@@ -1695,7 +1695,7 @@
         <v>高松市多肥上町504-2</v>
       </c>
       <c r="F30" t="str">
-        <v>087-864-8270</v>
+        <v/>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -1707,7 +1707,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J30" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K30" t="str">
         <v/>
@@ -1716,15 +1716,15 @@
         <v/>
       </c>
       <c r="M30" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N30" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="str">
         <v>34.33550917</v>
@@ -1739,7 +1739,7 @@
         <v>高松市香西南町37-2</v>
       </c>
       <c r="F31" t="str">
-        <v>087-832-8335</v>
+        <v/>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -1751,7 +1751,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J31" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K31" t="str">
         <v/>
@@ -1760,15 +1760,15 @@
         <v/>
       </c>
       <c r="M31" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N31" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="str">
         <v>34.32829056</v>
@@ -1783,7 +1783,7 @@
         <v>高松市鬼無町藤井126-1</v>
       </c>
       <c r="F32" t="str">
-        <v>087-882-7131</v>
+        <v/>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1795,7 +1795,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J32" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K32" t="str">
         <v/>
@@ -1804,15 +1804,15 @@
         <v/>
       </c>
       <c r="M32" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N32" t="str">
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="str">
         <v>34.31449194</v>
@@ -1827,7 +1827,7 @@
         <v>高松市飯田町104-1</v>
       </c>
       <c r="F33" t="str">
-        <v>087-881-0322</v>
+        <v/>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1839,7 +1839,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J33" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K33" t="str">
         <v/>
@@ -1848,15 +1848,15 @@
         <v/>
       </c>
       <c r="M33" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N33" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="str">
         <v>34.32354944</v>
@@ -1871,7 +1871,7 @@
         <v>高松市飯田町1334-4</v>
       </c>
       <c r="F34" t="str">
-        <v>087-832-8333</v>
+        <v/>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1883,7 +1883,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J34" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -1892,15 +1892,15 @@
         <v/>
       </c>
       <c r="M34" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N34" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="str">
         <v>34.24929111</v>
@@ -1915,7 +1915,7 @@
         <v>高松市香南町西庄182-1</v>
       </c>
       <c r="F35" t="str">
-        <v>087-815-9335</v>
+        <v/>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1927,7 +1927,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J35" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -1936,15 +1936,15 @@
         <v/>
       </c>
       <c r="M35" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N35" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="str">
         <v>34.24460806</v>
@@ -1959,7 +1959,7 @@
         <v>高松市香南町西庄695-1</v>
       </c>
       <c r="F36" t="str">
-        <v>087-815-8388</v>
+        <v/>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1971,7 +1971,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J36" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K36" t="str">
         <v/>
@@ -1980,15 +1980,15 @@
         <v/>
       </c>
       <c r="M36" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N36" t="str">
-        <v>9</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="str">
         <v>34.17937056</v>
@@ -2003,7 +2003,7 @@
         <v>高松市塩江町安原上東203-6</v>
       </c>
       <c r="F37" t="str">
-        <v>087-840-6155</v>
+        <v/>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -2015,7 +2015,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J37" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K37" t="str">
         <v/>
@@ -2024,15 +2024,15 @@
         <v/>
       </c>
       <c r="M37" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N37" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="str">
         <v>34.26443722</v>
@@ -2047,7 +2047,7 @@
         <v>高松市香川町大野901-1</v>
       </c>
       <c r="F38" t="str">
-        <v>087-885-6661</v>
+        <v/>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -2059,7 +2059,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J38" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K38" t="str">
         <v/>
@@ -2068,15 +2068,15 @@
         <v/>
       </c>
       <c r="M38" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N38" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="str">
         <v>34.24249278</v>
@@ -2091,7 +2091,7 @@
         <v>高松市香川町川東下672-5</v>
       </c>
       <c r="F39" t="str">
-        <v>087-879-0797</v>
+        <v/>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -2103,7 +2103,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J39" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K39" t="str">
         <v/>
@@ -2112,15 +2112,15 @@
         <v/>
       </c>
       <c r="M39" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N39" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="str">
         <v>34.3304825</v>
@@ -2135,7 +2135,7 @@
         <v>高松市牟礼町原932-1</v>
       </c>
       <c r="F40" t="str">
-        <v>087-870-1322</v>
+        <v/>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -2147,7 +2147,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J40" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K40" t="str">
         <v/>
@@ -2156,15 +2156,15 @@
         <v/>
       </c>
       <c r="M40" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N40" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
         <v>34.29202444</v>
@@ -2179,7 +2179,7 @@
         <v>高松市国分寺町新名478-1</v>
       </c>
       <c r="F41" t="str">
-        <v>087-864-9500</v>
+        <v/>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -2191,7 +2191,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J41" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K41" t="str">
         <v/>
@@ -2200,15 +2200,15 @@
         <v/>
       </c>
       <c r="M41" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N41" t="str">
-        <v>27</v>
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="str">
         <v>34.293583</v>
@@ -2223,10 +2223,10 @@
         <v>高松市円座町字道下288-1</v>
       </c>
       <c r="F42" t="str">
-        <v>087-885-1122</v>
+        <v/>
       </c>
       <c r="G42" t="str">
-        <v>http://www.junshinkai.com/</v>
+        <v/>
       </c>
       <c r="H42" t="str">
         <v/>
@@ -2235,7 +2235,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J42" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K42" t="str">
         <v/>
@@ -2244,15 +2244,15 @@
         <v/>
       </c>
       <c r="M42" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N42" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="str">
         <v>34.288677</v>
@@ -2267,7 +2267,7 @@
         <v>香川県高松市円座町94-1</v>
       </c>
       <c r="F43" t="str">
-        <v>087-815-7711</v>
+        <v/>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -2279,7 +2279,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J43" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K43" t="str">
         <v/>
@@ -2288,15 +2288,15 @@
         <v/>
       </c>
       <c r="M43" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N43" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="str">
         <v>34.3239</v>
@@ -2311,10 +2311,10 @@
         <v>高松市新田町甲1144-3</v>
       </c>
       <c r="F44" t="str">
-        <v>087-818-0050</v>
+        <v/>
       </c>
       <c r="G44" t="str">
-        <v>http://www.rakuraku-group.jp/</v>
+        <v/>
       </c>
       <c r="H44" t="str">
         <v/>
@@ -2323,7 +2323,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J44" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K44" t="str">
         <v/>
@@ -2332,15 +2332,15 @@
         <v/>
       </c>
       <c r="M44" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N44" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="str">
         <v>34.377899</v>
@@ -2355,7 +2355,7 @@
         <v>高松市庵治町3822-１</v>
       </c>
       <c r="F45" t="str">
-        <v>087-871-1577</v>
+        <v/>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -2367,7 +2367,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J45" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K45" t="str">
         <v/>
@@ -2376,15 +2376,15 @@
         <v/>
       </c>
       <c r="M45" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N45" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="str">
         <v>34.342305</v>
@@ -2399,7 +2399,7 @@
         <v>高松市福岡町四丁目12-18</v>
       </c>
       <c r="F46" t="str">
-        <v>087-880-7979</v>
+        <v/>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -2411,7 +2411,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J46" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K46" t="str">
         <v/>
@@ -2420,15 +2420,15 @@
         <v/>
       </c>
       <c r="M46" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N46" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="str">
         <v>34.350465</v>
@@ -2443,7 +2443,7 @@
         <v>高松市屋島西町893-1</v>
       </c>
       <c r="F47" t="str">
-        <v>087-814-6633</v>
+        <v/>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -2455,7 +2455,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J47" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K47" t="str">
         <v/>
@@ -2464,15 +2464,15 @@
         <v/>
       </c>
       <c r="M47" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N47" t="str">
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="str">
         <v>34.322026</v>
@@ -2487,7 +2487,7 @@
         <v>高松市飯田町705</v>
       </c>
       <c r="F48" t="str">
-        <v>087-813-1234</v>
+        <v/>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -2499,7 +2499,7 @@
         <v>認知症対応型共同生活介護</v>
       </c>
       <c r="J48" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K48" t="str">
         <v/>
@@ -2508,15 +2508,191 @@
         <v/>
       </c>
       <c r="M48" t="str">
-        <v>24時間対応</v>
+        <v/>
       </c>
       <c r="N48" t="str">
-        <v>18</v>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>34.345285887234</v>
+      </c>
+      <c r="C49" t="str">
+        <v>134.0400804522808</v>
+      </c>
+      <c r="D49" t="str">
+        <v>グループホーム新番丁</v>
+      </c>
+      <c r="E49" t="str">
+        <v>高松市番町二丁目14-2</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v>認知症対応型共同生活介護</v>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <v/>
+      </c>
+      <c r="N49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
+        <v>34.34331422027985</v>
+      </c>
+      <c r="C50" t="str">
+        <v>134.06037192666588</v>
+      </c>
+      <c r="D50" t="str">
+        <v>グループホーム花クッカ</v>
+      </c>
+      <c r="E50" t="str">
+        <v>高松市松福町一丁目12-3</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v>認知症対応型共同生活介護</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <v/>
+      </c>
+      <c r="N50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>50</v>
+      </c>
+      <c r="B51" t="str">
+        <v>34.31613769511954</v>
+      </c>
+      <c r="C51" t="str">
+        <v>134.10228897180178</v>
+      </c>
+      <c r="D51" t="str">
+        <v>グループホームアカシア</v>
+      </c>
+      <c r="E51" t="str">
+        <v>高松市新田町甲2180-1</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v>認知症対応型共同生活介護</v>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <v/>
+      </c>
+      <c r="N51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <v>34.29832458520862</v>
+      </c>
+      <c r="C52" t="str">
+        <v>133.9598471880089</v>
+      </c>
+      <c r="D52" t="str">
+        <v>グループホームアイムの杜</v>
+      </c>
+      <c r="E52" t="str">
+        <v>高松市国分寺町新居1339-3</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v>認知症対応型共同生活介護</v>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N48"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N52"/>
   </ignoredErrors>
 </worksheet>
 </file>